--- a/HW1/hw1_309652008.xlsx
+++ b/HW1/hw1_309652008.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BD4BD-9B2C-4A78-9D37-E705147273A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468014B1-D7B5-476A-BC6D-D57FD0EBFC9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>value(answer)</t>
+    <t>value (answer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,47 +50,36 @@
   </si>
   <si>
     <t>w2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>w12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b1</t>
@@ -95,19 +87,15 @@
   </si>
   <si>
     <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -138,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -146,13 +134,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -170,6 +272,120 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="工作表1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.47</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.64</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.49</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.43</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.09</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.61</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.28000000000000003</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0.94</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.46</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,186 +651,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
+        <f>[1]工作表1!B2</f>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
+        <f>[1]工作表1!B3</f>
         <v>0.47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="12">
+        <f>[1]工作表1!B4</f>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
+        <f>[1]工作表1!B5</f>
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
+        <f>[1]工作表1!B6</f>
         <v>0.49</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
+        <f>[1]工作表1!B7</f>
         <v>0.22</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
+        <f>[1]工作表1!B8</f>
         <v>0.43</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
+        <f>[1]工作表1!B9</f>
         <v>0.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
+        <f>[1]工作表1!B10</f>
         <v>0.09</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
+        <f>[1]工作表1!B11</f>
         <v>0.22</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
+        <f>[1]工作表1!B12</f>
         <v>0.61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
+        <f>[1]工作表1!B13</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
+        <f>[1]工作表1!B14</f>
         <v>0.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C14" s="7"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
+        <f>[1]工作表1!B15</f>
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
+        <f>[1]工作表1!B16</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
+        <f>[1]工作表1!B17</f>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
+        <f>[1]工作表1!B18</f>
         <v>0.39</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
+        <f>[1]工作表1!B19</f>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
+        <f>[1]工作表1!B20</f>
         <v>0.94</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="8">
+        <f>[1]工作表1!B21</f>
         <v>0.46</v>
       </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
